--- a/protocols/主成分負荷量.xlsx
+++ b/protocols/主成分負荷量.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamamoto\Desktop\絶食マウス\protocols\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamamoto\Documents\GitHub\mseapca\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC9534-E742-469C-A15A-EAC7EFA73DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696FE48A-7E43-425E-AA48-5742E0F13C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E7D7721D-E997-4B76-80E7-A55C50CE377A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E7D7721D-E997-4B76-80E7-A55C50CE377A}"/>
   </bookViews>
   <sheets>
     <sheet name="pca_score" sheetId="2" r:id="rId1"/>
     <sheet name="pca_loadings" sheetId="3" r:id="rId2"/>
-    <sheet name="pc loadings" sheetId="1" r:id="rId3"/>
+    <sheet name="score_PC12" sheetId="5" r:id="rId3"/>
+    <sheet name="loadings_PC12" sheetId="6" r:id="rId4"/>
+    <sheet name="pc loadings" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="307">
   <si>
     <t>L2-5</t>
   </si>
@@ -989,13 +991,17 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1052,7 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F4FA05-60A4-4C89-9F47-BE81BCDA906B}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1775,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97914DBA-BCAD-4D28-980D-CC93ADA255B9}">
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -11707,6 +11713,3296 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775DFD9C-6479-4F40-8670-8A8D6893BB8C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-9.8727999999999998</v>
+      </c>
+      <c r="C2">
+        <v>10.351000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-13.449</v>
+      </c>
+      <c r="C3">
+        <v>-6.2892999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-10.693</v>
+      </c>
+      <c r="C4">
+        <v>-9.3645999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>-9.6884999999999994</v>
+      </c>
+      <c r="C5">
+        <v>0.56620999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-5.5308999999999999</v>
+      </c>
+      <c r="C6">
+        <v>7.6413000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>8.0325000000000006</v>
+      </c>
+      <c r="C7">
+        <v>-4.1375999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>11.532999999999999</v>
+      </c>
+      <c r="C8">
+        <v>4.1002999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>7.1776</v>
+      </c>
+      <c r="C9">
+        <v>3.1642000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10.818</v>
+      </c>
+      <c r="C10">
+        <v>1.3478000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>11.672000000000001</v>
+      </c>
+      <c r="C11">
+        <v>-7.3788</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11E12DF-12AC-4EF0-9C74-3B9AE13D2DDA}">
+  <dimension ref="A1:G283"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>-7.9629000000000005E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.0375000000000001E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMSQ(B2:B283)</f>
+        <v>1.0000008199408692</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMSQ(C2:C283)</f>
+        <v>1.0000066009640487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>5.8642E-2</v>
+      </c>
+      <c r="C3">
+        <v>-1.5737000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>-8.0958000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>-1.2043E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>5.7869999999999998E-2</v>
+      </c>
+      <c r="C5">
+        <v>-8.6869000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>-5.5560999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.2185999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>-8.3590999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.7865999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>5.6425999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.8029000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>-5.2062999999999998E-2</v>
+      </c>
+      <c r="C9">
+        <v>-2.4643999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>-4.7161000000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.1028999999999996E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>4.3694999999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>-3.9428999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-6.6614000000000007E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.1228E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>4.1146999999999998E-3</v>
+      </c>
+      <c r="C13">
+        <v>-2.7647000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>-6.9986000000000007E-2</v>
+      </c>
+      <c r="C14">
+        <v>-9.1051000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>-5.8068000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.5180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>2.0039999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>-1.9675000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>-2.2696999999999998E-2</v>
+      </c>
+      <c r="C17">
+        <v>-6.0277000000000004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>4.453E-2</v>
+      </c>
+      <c r="C18">
+        <v>-2.0917000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>-2.8858000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <v>6.7407999999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>-6.0059000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.9459000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>-6.4646999999999996E-2</v>
+      </c>
+      <c r="C21">
+        <v>5.1347999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>-1.8793000000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>8.7464E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>-4.6580999999999997E-2</v>
+      </c>
+      <c r="C23">
+        <v>-3.3365999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>-8.0929000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.3247E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>-7.8316999999999998E-2</v>
+      </c>
+      <c r="C25">
+        <v>2.9278999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>-8.4130999999999997E-2</v>
+      </c>
+      <c r="C26">
+        <v>-4.895E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>-3.5791999999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>6.2191999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>-7.2011000000000006E-2</v>
+      </c>
+      <c r="C28">
+        <v>-7.1931999999999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>-5.3044000000000001E-2</v>
+      </c>
+      <c r="C29">
+        <v>-0.10963000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>-1.1954999999999999E-3</v>
+      </c>
+      <c r="C30">
+        <v>-8.1209000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>-4.9383999999999999E-3</v>
+      </c>
+      <c r="C31">
+        <v>6.7317000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>-6.7466999999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>4.1168999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>-3.4484000000000001E-2</v>
+      </c>
+      <c r="C33">
+        <v>-5.2442999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>8.3052000000000001E-2</v>
+      </c>
+      <c r="C34">
+        <v>-3.2073999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>5.3314E-2</v>
+      </c>
+      <c r="C35">
+        <v>2.1812999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>-6.4829999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>7.2091000000000004E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>-8.6451E-2</v>
+      </c>
+      <c r="C37">
+        <v>3.4132999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>-3.6614000000000001E-2</v>
+      </c>
+      <c r="C38">
+        <v>-1.9959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>4.2325000000000002E-2</v>
+      </c>
+      <c r="C39">
+        <v>-2.8538999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>-8.4703000000000001E-2</v>
+      </c>
+      <c r="C40">
+        <v>-1.8898000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>8.5805999999999993E-2</v>
+      </c>
+      <c r="C41">
+        <v>-7.6838999999999996E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>-9.0305999999999997E-2</v>
+      </c>
+      <c r="C42">
+        <v>-2.2438E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>-8.6217000000000002E-2</v>
+      </c>
+      <c r="C43">
+        <v>4.5947000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>-8.7831000000000006E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.9778E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>-8.3488000000000007E-2</v>
+      </c>
+      <c r="C45">
+        <v>1.0142999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>-1.418E-2</v>
+      </c>
+      <c r="C46">
+        <v>-4.2906E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>-8.1053E-2</v>
+      </c>
+      <c r="C47">
+        <v>-1.8581E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>-9.1926999999999995E-2</v>
+      </c>
+      <c r="C48">
+        <v>-2.4298000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>-4.1732999999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>9.9842E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>-6.2369000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>7.5171000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>-5.5071000000000002E-2</v>
+      </c>
+      <c r="C51">
+        <v>-1.4128999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>-6.5179000000000001E-2</v>
+      </c>
+      <c r="C52">
+        <v>-3.5320999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="C53">
+        <v>-3.4701999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>-6.7903000000000005E-2</v>
+      </c>
+      <c r="C54">
+        <v>-9.2128000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>-8.6955999999999995E-3</v>
+      </c>
+      <c r="C55">
+        <v>0.13991000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>-6.1775999999999998E-2</v>
+      </c>
+      <c r="C56">
+        <v>-8.4068000000000004E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>-4.7999000000000002E-3</v>
+      </c>
+      <c r="C57">
+        <v>-0.11612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>-3.6700999999999999E-3</v>
+      </c>
+      <c r="C58">
+        <v>0.10298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59">
+        <v>4.5683000000000001E-2</v>
+      </c>
+      <c r="C59">
+        <v>0.11187999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60">
+        <v>-4.9709000000000003E-2</v>
+      </c>
+      <c r="C60">
+        <v>2.8825E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61">
+        <v>-2.776E-2</v>
+      </c>
+      <c r="C61">
+        <v>7.0803000000000005E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>6.7052E-2</v>
+      </c>
+      <c r="C62">
+        <v>-7.5273999999999994E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>-8.8472999999999996E-2</v>
+      </c>
+      <c r="C63">
+        <v>-1.6594999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64">
+        <v>8.0667000000000003E-2</v>
+      </c>
+      <c r="C64">
+        <v>-1.6986999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65">
+        <v>9.0702000000000005E-2</v>
+      </c>
+      <c r="C65">
+        <v>-1.9174E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66">
+        <v>-5.8362999999999998E-2</v>
+      </c>
+      <c r="C66">
+        <v>-3.6804000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>-6.1969000000000003E-2</v>
+      </c>
+      <c r="C67">
+        <v>5.7632999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68">
+        <v>2.9179E-2</v>
+      </c>
+      <c r="C68">
+        <v>-9.8025999999999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69">
+        <v>-2.3879000000000001E-2</v>
+      </c>
+      <c r="C69">
+        <v>3.4737000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <v>6.2101000000000003E-2</v>
+      </c>
+      <c r="C70">
+        <v>-5.1937999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <v>-5.5409E-2</v>
+      </c>
+      <c r="C71">
+        <v>-8.2896999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>-5.9462000000000001E-2</v>
+      </c>
+      <c r="C72">
+        <v>-2.3153E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73">
+        <v>-1.7680000000000001E-2</v>
+      </c>
+      <c r="C73">
+        <v>-0.13483999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74">
+        <v>7.6884999999999995E-2</v>
+      </c>
+      <c r="C74">
+        <v>-1.6396E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75">
+        <v>-8.1494999999999998E-2</v>
+      </c>
+      <c r="C75">
+        <v>-3.6047000000000003E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>-8.4431000000000006E-2</v>
+      </c>
+      <c r="C76">
+        <v>2.5141E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77">
+        <v>6.9596000000000005E-2</v>
+      </c>
+      <c r="C77">
+        <v>-7.8844999999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78">
+        <v>-3.4633999999999998E-2</v>
+      </c>
+      <c r="C78">
+        <v>-0.1003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79">
+        <v>-1.9436999999999999E-2</v>
+      </c>
+      <c r="C79">
+        <v>2.7612999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80">
+        <v>3.1261999999999998E-2</v>
+      </c>
+      <c r="C80">
+        <v>-6.6450999999999996E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81">
+        <v>7.9783999999999994E-2</v>
+      </c>
+      <c r="C81">
+        <v>-4.6661000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82">
+        <v>5.8248000000000001E-2</v>
+      </c>
+      <c r="C82">
+        <v>4.4313999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83">
+        <v>8.8763999999999996E-2</v>
+      </c>
+      <c r="C83">
+        <v>-3.6782999999999998E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>-7.3209999999999997E-2</v>
+      </c>
+      <c r="C84">
+        <v>-8.7790000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85">
+        <v>7.5665999999999997E-2</v>
+      </c>
+      <c r="C85">
+        <v>-1.0991E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86">
+        <v>-3.6441000000000001E-2</v>
+      </c>
+      <c r="C86">
+        <v>3.8011000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87">
+        <v>-7.0616999999999999E-2</v>
+      </c>
+      <c r="C87">
+        <v>4.0052999999999998E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88">
+        <v>-6.0340999999999999E-2</v>
+      </c>
+      <c r="C88">
+        <v>-9.4549999999999995E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89">
+        <v>-4.6941999999999998E-2</v>
+      </c>
+      <c r="C89">
+        <v>-9.3401999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90">
+        <v>8.4425E-2</v>
+      </c>
+      <c r="C90">
+        <v>1.3749000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91">
+        <v>-1.7554000000000001E-3</v>
+      </c>
+      <c r="C91">
+        <v>-0.12058000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92">
+        <v>4.87E-2</v>
+      </c>
+      <c r="C92">
+        <v>1.0201999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93">
+        <v>5.7584999999999997E-3</v>
+      </c>
+      <c r="C93">
+        <v>6.2778E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94">
+        <v>-3.3168000000000003E-2</v>
+      </c>
+      <c r="C94">
+        <v>-7.5294E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95">
+        <v>-2.2661000000000001E-2</v>
+      </c>
+      <c r="C95">
+        <v>-7.5867000000000004E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96">
+        <v>1.3214999999999999E-2</v>
+      </c>
+      <c r="C96">
+        <v>2.3136E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97">
+        <v>-3.7928000000000003E-2</v>
+      </c>
+      <c r="C97">
+        <v>-2.2381999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98">
+        <v>6.9766000000000003E-3</v>
+      </c>
+      <c r="C98">
+        <v>3.7055999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99">
+        <v>6.5851999999999994E-2</v>
+      </c>
+      <c r="C99">
+        <v>-5.1322E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100">
+        <v>-8.3309999999999995E-2</v>
+      </c>
+      <c r="C100">
+        <v>1.2198000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101">
+        <v>-7.3627999999999999E-2</v>
+      </c>
+      <c r="C101">
+        <v>5.4281000000000003E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102">
+        <v>-5.0067E-2</v>
+      </c>
+      <c r="C102">
+        <v>-6.8981000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103">
+        <v>1.1439E-2</v>
+      </c>
+      <c r="C103">
+        <v>-1.0049000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104">
+        <v>-7.2087999999999999E-2</v>
+      </c>
+      <c r="C104">
+        <v>-4.2171E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105">
+        <v>-7.3292999999999997E-2</v>
+      </c>
+      <c r="C105">
+        <v>-2.896E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106">
+        <v>-4.2236000000000003E-2</v>
+      </c>
+      <c r="C106">
+        <v>-0.11978999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107">
+        <v>8.5557999999999995E-2</v>
+      </c>
+      <c r="C107">
+        <v>-1.7989000000000002E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108">
+        <v>6.7296999999999996E-2</v>
+      </c>
+      <c r="C108">
+        <v>-4.8779000000000003E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109">
+        <v>5.6129999999999999E-2</v>
+      </c>
+      <c r="C109">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110">
+        <v>9.0866999999999996E-3</v>
+      </c>
+      <c r="C110">
+        <v>-0.10747</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111">
+        <v>-5.4122999999999998E-2</v>
+      </c>
+      <c r="C111">
+        <v>-2.8115999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112">
+        <v>-5.2829000000000001E-2</v>
+      </c>
+      <c r="C112">
+        <v>-6.6986000000000004E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113">
+        <v>1.1414000000000001E-2</v>
+      </c>
+      <c r="C113">
+        <v>8.0359E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114">
+        <v>-7.8696000000000002E-2</v>
+      </c>
+      <c r="C114">
+        <v>-5.8722999999999997E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115">
+        <v>-2.2693999999999999E-2</v>
+      </c>
+      <c r="C115">
+        <v>-1.2855E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116">
+        <v>-6.9320999999999994E-2</v>
+      </c>
+      <c r="C116">
+        <v>-8.3152000000000004E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117">
+        <v>-7.8063000000000004E-4</v>
+      </c>
+      <c r="C117">
+        <v>-1.3001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118">
+        <v>5.9964000000000003E-2</v>
+      </c>
+      <c r="C118">
+        <v>4.5331999999999997E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119">
+        <v>2.0486000000000001E-2</v>
+      </c>
+      <c r="C119">
+        <v>-3.0814999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120">
+        <v>6.2843999999999997E-2</v>
+      </c>
+      <c r="C120">
+        <v>-4.0497999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121">
+        <v>-7.4269000000000002E-2</v>
+      </c>
+      <c r="C121">
+        <v>-9.8697999999999998E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122">
+        <v>-5.1794E-2</v>
+      </c>
+      <c r="C122">
+        <v>-3.9836000000000003E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123">
+        <v>-2.3956999999999999E-2</v>
+      </c>
+      <c r="C123">
+        <v>2.2594E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124">
+        <v>8.5116999999999998E-2</v>
+      </c>
+      <c r="C124">
+        <v>-3.9239000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125">
+        <v>-8.8706999999999994E-2</v>
+      </c>
+      <c r="C125">
+        <v>1.3152E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126">
+        <v>2.4704E-2</v>
+      </c>
+      <c r="C126">
+        <v>-7.4995999999999993E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127">
+        <v>7.1184999999999998E-3</v>
+      </c>
+      <c r="C127">
+        <v>-9.4381999999999994E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128">
+        <v>-3.1970999999999999E-2</v>
+      </c>
+      <c r="C128">
+        <v>-6.1129000000000003E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129">
+        <v>-2.3300000000000001E-2</v>
+      </c>
+      <c r="C129">
+        <v>8.4667000000000006E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130">
+        <v>-7.1870000000000003E-2</v>
+      </c>
+      <c r="C130">
+        <v>2.4156E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131">
+        <v>-7.0083000000000006E-2</v>
+      </c>
+      <c r="C131">
+        <v>-1.2422000000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132">
+        <v>-5.2581999999999998E-4</v>
+      </c>
+      <c r="C132">
+        <v>-8.6542999999999995E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133">
+        <v>1.6531000000000001E-2</v>
+      </c>
+      <c r="C133">
+        <v>9.3174999999999994E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134">
+        <v>-5.441E-2</v>
+      </c>
+      <c r="C134">
+        <v>4.6073999999999997E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135">
+        <v>-7.9895000000000001E-3</v>
+      </c>
+      <c r="C135">
+        <v>0.13197999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136">
+        <v>1.0311000000000001E-2</v>
+      </c>
+      <c r="C136">
+        <v>9.6269999999999994E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137">
+        <v>6.3515999999999998E-3</v>
+      </c>
+      <c r="C137">
+        <v>9.4787999999999997E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138">
+        <v>4.0723000000000002E-2</v>
+      </c>
+      <c r="C138">
+        <v>-6.2618999999999994E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139">
+        <v>-3.0217000000000001E-2</v>
+      </c>
+      <c r="C139">
+        <v>2.1576000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140">
+        <v>7.3619000000000004E-2</v>
+      </c>
+      <c r="C140">
+        <v>4.0527000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141">
+        <v>-5.7824E-2</v>
+      </c>
+      <c r="C141">
+        <v>-9.9243999999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142">
+        <v>-6.0430999999999999E-2</v>
+      </c>
+      <c r="C142">
+        <v>-0.10513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143">
+        <v>-8.4834999999999994E-2</v>
+      </c>
+      <c r="C143">
+        <v>-3.4023999999999999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144">
+        <v>-6.8662000000000001E-2</v>
+      </c>
+      <c r="C144">
+        <v>-7.6920000000000002E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145">
+        <v>1.3473000000000001E-2</v>
+      </c>
+      <c r="C145">
+        <v>-9.4164999999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146">
+        <v>-4.1556999999999997E-2</v>
+      </c>
+      <c r="C146">
+        <v>5.7165000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147">
+        <v>-6.787E-2</v>
+      </c>
+      <c r="C147">
+        <v>2.4909000000000001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>166</v>
+      </c>
+      <c r="B148">
+        <v>-3.8394999999999999E-2</v>
+      </c>
+      <c r="C148">
+        <v>-7.2691000000000006E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149">
+        <v>9.8226000000000008E-3</v>
+      </c>
+      <c r="C149">
+        <v>-6.8163000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150">
+        <v>7.5708999999999999E-2</v>
+      </c>
+      <c r="C150">
+        <v>5.3698999999999997E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151">
+        <v>-5.5662000000000003E-2</v>
+      </c>
+      <c r="C151">
+        <v>-9.7599000000000005E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152">
+        <v>-8.7695999999999996E-2</v>
+      </c>
+      <c r="C152">
+        <v>-1.5112E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153">
+        <v>-3.5534999999999997E-2</v>
+      </c>
+      <c r="C153">
+        <v>3.4143E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154">
+        <v>8.2333000000000003E-2</v>
+      </c>
+      <c r="C154">
+        <v>3.0918999999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155">
+        <v>-7.4424000000000004E-2</v>
+      </c>
+      <c r="C155">
+        <v>3.3659000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="C156">
+        <v>2.1971000000000001E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157">
+        <v>-7.1051000000000003E-2</v>
+      </c>
+      <c r="C157">
+        <v>2.2578000000000001E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158">
+        <v>3.3491E-2</v>
+      </c>
+      <c r="C158">
+        <v>4.4657999999999998E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159">
+        <v>-7.9314999999999997E-2</v>
+      </c>
+      <c r="C159">
+        <v>3.3771000000000002E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160">
+        <v>-4.7208E-2</v>
+      </c>
+      <c r="C160">
+        <v>7.9725000000000004E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161">
+        <v>-2.5360000000000001E-2</v>
+      </c>
+      <c r="C161">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162">
+        <v>-6.1016000000000001E-2</v>
+      </c>
+      <c r="C162">
+        <v>8.3604999999999999E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163">
+        <v>-6.8339000000000004E-3</v>
+      </c>
+      <c r="C163">
+        <v>5.3920000000000003E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164">
+        <v>-2.2534999999999999E-2</v>
+      </c>
+      <c r="C164">
+        <v>-0.11321000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165">
+        <v>-7.5900999999999998E-3</v>
+      </c>
+      <c r="C165">
+        <v>-1.3896E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166">
+        <v>-8.8067000000000006E-2</v>
+      </c>
+      <c r="C166">
+        <v>8.2692000000000009E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>185</v>
+      </c>
+      <c r="B167">
+        <v>-3.5632999999999998E-2</v>
+      </c>
+      <c r="C167">
+        <v>-0.12852</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>186</v>
+      </c>
+      <c r="B168">
+        <v>-1.2789999999999999E-2</v>
+      </c>
+      <c r="C168">
+        <v>2.7400999999999998E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169">
+        <v>-9.1467000000000007E-2</v>
+      </c>
+      <c r="C169">
+        <v>4.6058000000000002E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170">
+        <v>-9.1468999999999995E-2</v>
+      </c>
+      <c r="C170">
+        <v>1.1376000000000001E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>189</v>
+      </c>
+      <c r="B171">
+        <v>-7.8787999999999997E-2</v>
+      </c>
+      <c r="C171">
+        <v>5.0437000000000003E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172">
+        <v>5.2306999999999999E-2</v>
+      </c>
+      <c r="C172">
+        <v>1.9439000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173">
+        <v>3.1130000000000001E-2</v>
+      </c>
+      <c r="C173">
+        <v>9.9736000000000005E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B174">
+        <v>3.1835000000000002E-2</v>
+      </c>
+      <c r="C174">
+        <v>-3.7310000000000003E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175">
+        <v>-5.5670999999999998E-2</v>
+      </c>
+      <c r="C175">
+        <v>0.11382</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176">
+        <v>-8.9214000000000002E-2</v>
+      </c>
+      <c r="C176">
+        <v>3.1948999999999998E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>195</v>
+      </c>
+      <c r="B177">
+        <v>6.9956000000000004E-2</v>
+      </c>
+      <c r="C177">
+        <v>-2.3217999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178">
+        <v>-8.2970000000000002E-2</v>
+      </c>
+      <c r="C178">
+        <v>1.3703999999999999E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179">
+        <v>-8.2187999999999997E-2</v>
+      </c>
+      <c r="C179">
+        <v>-4.0032999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180">
+        <v>-6.6969000000000001E-2</v>
+      </c>
+      <c r="C180">
+        <v>-3.8238000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181">
+        <v>-8.9598999999999998E-2</v>
+      </c>
+      <c r="C181">
+        <v>1.0477E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182">
+        <v>-5.5093000000000003E-2</v>
+      </c>
+      <c r="C182">
+        <v>6.3818E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183">
+        <v>5.4009000000000001E-2</v>
+      </c>
+      <c r="C183">
+        <v>-2.2877999999999999E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184">
+        <v>9.2132000000000006E-2</v>
+      </c>
+      <c r="C184">
+        <v>-2.0201E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>203</v>
+      </c>
+      <c r="B185">
+        <v>1.9512999999999999E-2</v>
+      </c>
+      <c r="C185">
+        <v>-5.6304E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186">
+        <v>-6.8420999999999996E-2</v>
+      </c>
+      <c r="C186">
+        <v>-8.9043999999999998E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187">
+        <v>-7.9675999999999997E-2</v>
+      </c>
+      <c r="C187">
+        <v>6.9429000000000005E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188">
+        <v>-3.3168000000000003E-2</v>
+      </c>
+      <c r="C188">
+        <v>-7.5294E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189">
+        <v>-7.4098999999999998E-2</v>
+      </c>
+      <c r="C189">
+        <v>7.7080999999999997E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190">
+        <v>-3.3897999999999998E-2</v>
+      </c>
+      <c r="C190">
+        <v>8.2983000000000001E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191">
+        <v>5.6473000000000002E-2</v>
+      </c>
+      <c r="C191">
+        <v>-3.8556E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>210</v>
+      </c>
+      <c r="B192">
+        <v>6.5879999999999994E-2</v>
+      </c>
+      <c r="C192">
+        <v>-2.2609000000000001E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>211</v>
+      </c>
+      <c r="B193">
+        <v>-2.2995999999999999E-2</v>
+      </c>
+      <c r="C193">
+        <v>-0.11814</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>212</v>
+      </c>
+      <c r="B194">
+        <v>-3.2141000000000003E-2</v>
+      </c>
+      <c r="C194">
+        <v>-2.682E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>213</v>
+      </c>
+      <c r="B195">
+        <v>-6.9617999999999999E-2</v>
+      </c>
+      <c r="C195">
+        <v>-2.9860999999999999E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196">
+        <v>-6.0877000000000001E-2</v>
+      </c>
+      <c r="C196">
+        <v>-0.10339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197">
+        <v>-8.3260000000000001E-2</v>
+      </c>
+      <c r="C197">
+        <v>-1.7385000000000001E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198">
+        <v>-4.7663999999999998E-2</v>
+      </c>
+      <c r="C198">
+        <v>5.8976000000000001E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>217</v>
+      </c>
+      <c r="B199">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="C199">
+        <v>-8.5245000000000001E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200">
+        <v>5.3247999999999997E-2</v>
+      </c>
+      <c r="C200">
+        <v>-0.10747</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201">
+        <v>-6.4147999999999997E-2</v>
+      </c>
+      <c r="C201">
+        <v>-4.3492000000000003E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202">
+        <v>-3.0768E-2</v>
+      </c>
+      <c r="C202">
+        <v>3.5483000000000001E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>221</v>
+      </c>
+      <c r="B203">
+        <v>2.6825999999999999E-2</v>
+      </c>
+      <c r="C203">
+        <v>-4.8732999999999999E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>222</v>
+      </c>
+      <c r="B204">
+        <v>-4.2499000000000002E-2</v>
+      </c>
+      <c r="C204">
+        <v>-0.12289</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205">
+        <v>-6.1046000000000003E-2</v>
+      </c>
+      <c r="C205">
+        <v>-6.9072999999999996E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206">
+        <v>-6.9290000000000004E-2</v>
+      </c>
+      <c r="C206">
+        <v>-4.1553E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207">
+        <v>8.7619000000000002E-2</v>
+      </c>
+      <c r="C207">
+        <v>-3.1149E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>226</v>
+      </c>
+      <c r="B208">
+        <v>7.0643999999999998E-2</v>
+      </c>
+      <c r="C208">
+        <v>-5.0018E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>227</v>
+      </c>
+      <c r="B209">
+        <v>6.6023999999999999E-2</v>
+      </c>
+      <c r="C209">
+        <v>-3.2487000000000002E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210">
+        <v>-2.3542E-2</v>
+      </c>
+      <c r="C210">
+        <v>6.3969999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211">
+        <v>1.0917E-2</v>
+      </c>
+      <c r="C211">
+        <v>1.8688E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212">
+        <v>8.7373999999999993E-2</v>
+      </c>
+      <c r="C212">
+        <v>-3.1088000000000001E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>231</v>
+      </c>
+      <c r="B213">
+        <v>-3.3907E-2</v>
+      </c>
+      <c r="C213">
+        <v>1.6080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>232</v>
+      </c>
+      <c r="B214">
+        <v>-9.1954999999999995E-2</v>
+      </c>
+      <c r="C214">
+        <v>6.3829999999999998E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215">
+        <v>7.1814000000000003E-2</v>
+      </c>
+      <c r="C215">
+        <v>9.6690999999999997E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>234</v>
+      </c>
+      <c r="B216">
+        <v>-5.3343000000000002E-2</v>
+      </c>
+      <c r="C216">
+        <v>3.2990999999999999E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217">
+        <v>3.3883000000000003E-2</v>
+      </c>
+      <c r="C217">
+        <v>-2.3938999999999998E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>236</v>
+      </c>
+      <c r="B218">
+        <v>-4.6268999999999998E-2</v>
+      </c>
+      <c r="C218">
+        <v>3.0498000000000001E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219">
+        <v>6.5847000000000003E-2</v>
+      </c>
+      <c r="C219">
+        <v>-7.6286000000000007E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220">
+        <v>-5.1700999999999997E-2</v>
+      </c>
+      <c r="C220">
+        <v>5.4308000000000002E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>239</v>
+      </c>
+      <c r="B221">
+        <v>-6.3173999999999994E-2</v>
+      </c>
+      <c r="C221">
+        <v>-7.3013999999999996E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>240</v>
+      </c>
+      <c r="B222">
+        <v>-8.1626000000000004E-2</v>
+      </c>
+      <c r="C222">
+        <v>-5.4107000000000002E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>241</v>
+      </c>
+      <c r="B223">
+        <v>-6.2238000000000002E-2</v>
+      </c>
+      <c r="C223">
+        <v>1.7545000000000002E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>242</v>
+      </c>
+      <c r="B224">
+        <v>-8.4628999999999996E-2</v>
+      </c>
+      <c r="C224">
+        <v>-8.0502000000000004E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>243</v>
+      </c>
+      <c r="B225">
+        <v>9.2013000000000008E-3</v>
+      </c>
+      <c r="C225">
+        <v>-0.10082000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>244</v>
+      </c>
+      <c r="B226">
+        <v>6.5111000000000002E-2</v>
+      </c>
+      <c r="C226">
+        <v>-7.0710999999999996E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>245</v>
+      </c>
+      <c r="B227">
+        <v>-1.9508999999999999E-2</v>
+      </c>
+      <c r="C227">
+        <v>4.3496E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>246</v>
+      </c>
+      <c r="B228">
+        <v>-8.2734000000000002E-2</v>
+      </c>
+      <c r="C228">
+        <v>-4.7891000000000003E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>247</v>
+      </c>
+      <c r="B229">
+        <v>-7.2072999999999998E-2</v>
+      </c>
+      <c r="C229">
+        <v>5.5951000000000001E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>248</v>
+      </c>
+      <c r="B230">
+        <v>-4.4627E-2</v>
+      </c>
+      <c r="C230">
+        <v>6.6998000000000002E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>249</v>
+      </c>
+      <c r="B231">
+        <v>-3.2205999999999999E-2</v>
+      </c>
+      <c r="C231">
+        <v>2.5316999999999999E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>250</v>
+      </c>
+      <c r="B232">
+        <v>2.1523E-2</v>
+      </c>
+      <c r="C232">
+        <v>-5.7264000000000002E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>251</v>
+      </c>
+      <c r="B233">
+        <v>8.8057999999999997E-2</v>
+      </c>
+      <c r="C233">
+        <v>-5.7723000000000002E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>252</v>
+      </c>
+      <c r="B234">
+        <v>-7.8095999999999999E-3</v>
+      </c>
+      <c r="C234">
+        <v>-8.2811999999999997E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>253</v>
+      </c>
+      <c r="B235">
+        <v>8.4675E-2</v>
+      </c>
+      <c r="C235">
+        <v>-3.3394E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>254</v>
+      </c>
+      <c r="B236">
+        <v>7.9737000000000002E-2</v>
+      </c>
+      <c r="C236">
+        <v>-2.1350999999999998E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>255</v>
+      </c>
+      <c r="B237">
+        <v>-5.2518000000000002E-2</v>
+      </c>
+      <c r="C237">
+        <v>4.2951999999999997E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>256</v>
+      </c>
+      <c r="B238">
+        <v>-8.3844000000000002E-2</v>
+      </c>
+      <c r="C238">
+        <v>-4.1632000000000002E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>257</v>
+      </c>
+      <c r="B239">
+        <v>8.3176E-2</v>
+      </c>
+      <c r="C239">
+        <v>-3.7164000000000003E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>258</v>
+      </c>
+      <c r="B240">
+        <v>-8.3877999999999994E-2</v>
+      </c>
+      <c r="C240">
+        <v>1.1708E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>259</v>
+      </c>
+      <c r="B241">
+        <v>-5.9952999999999999E-2</v>
+      </c>
+      <c r="C241">
+        <v>-2.92E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>260</v>
+      </c>
+      <c r="B242">
+        <v>6.2094000000000003E-3</v>
+      </c>
+      <c r="C242">
+        <v>-0.10488</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>261</v>
+      </c>
+      <c r="B243">
+        <v>7.0518999999999998E-2</v>
+      </c>
+      <c r="C243">
+        <v>-4.0152E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>262</v>
+      </c>
+      <c r="B244">
+        <v>-3.0623999999999998E-2</v>
+      </c>
+      <c r="C244">
+        <v>8.3222000000000004E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>263</v>
+      </c>
+      <c r="B245">
+        <v>-6.1044000000000001E-2</v>
+      </c>
+      <c r="C245">
+        <v>-9.3158000000000005E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>264</v>
+      </c>
+      <c r="B246">
+        <v>1.2364E-2</v>
+      </c>
+      <c r="C246">
+        <v>-3.9941999999999998E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>265</v>
+      </c>
+      <c r="B247">
+        <v>-5.6163999999999999E-2</v>
+      </c>
+      <c r="C247">
+        <v>-9.4396999999999995E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>266</v>
+      </c>
+      <c r="B248">
+        <v>2.8738E-2</v>
+      </c>
+      <c r="C248">
+        <v>0.11558</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>267</v>
+      </c>
+      <c r="B249">
+        <v>-8.8844999999999993E-2</v>
+      </c>
+      <c r="C249">
+        <v>-3.5427E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>268</v>
+      </c>
+      <c r="B250">
+        <v>6.8788E-3</v>
+      </c>
+      <c r="C250">
+        <v>5.1221000000000003E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>269</v>
+      </c>
+      <c r="B251">
+        <v>-6.5662999999999999E-2</v>
+      </c>
+      <c r="C251">
+        <v>-4.6656000000000003E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252">
+        <v>-6.7007999999999998E-2</v>
+      </c>
+      <c r="C252">
+        <v>-8.9145000000000002E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>271</v>
+      </c>
+      <c r="B253">
+        <v>-4.2112999999999998E-2</v>
+      </c>
+      <c r="C253">
+        <v>-2.7262999999999999E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>272</v>
+      </c>
+      <c r="B254">
+        <v>1.6421999999999999E-3</v>
+      </c>
+      <c r="C254">
+        <v>-7.5093E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>273</v>
+      </c>
+      <c r="B255">
+        <v>-8.1041000000000002E-2</v>
+      </c>
+      <c r="C255">
+        <v>3.5040000000000002E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>274</v>
+      </c>
+      <c r="B256">
+        <v>-3.1975999999999997E-2</v>
+      </c>
+      <c r="C256">
+        <v>-0.10879</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>275</v>
+      </c>
+      <c r="B257">
+        <v>8.8149000000000005E-2</v>
+      </c>
+      <c r="C257">
+        <v>5.1744E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>276</v>
+      </c>
+      <c r="B258">
+        <v>7.3429999999999995E-2</v>
+      </c>
+      <c r="C258">
+        <v>2.3816E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>277</v>
+      </c>
+      <c r="B259">
+        <v>-5.9503E-2</v>
+      </c>
+      <c r="C259">
+        <v>9.6953000000000004E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>278</v>
+      </c>
+      <c r="B260">
+        <v>5.8110000000000002E-2</v>
+      </c>
+      <c r="C260">
+        <v>-8.6527999999999994E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>279</v>
+      </c>
+      <c r="B261">
+        <v>9.1149999999999995E-2</v>
+      </c>
+      <c r="C261">
+        <v>-1.1795E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>280</v>
+      </c>
+      <c r="B262">
+        <v>8.1079999999999999E-2</v>
+      </c>
+      <c r="C262">
+        <v>-8.3802000000000008E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>281</v>
+      </c>
+      <c r="B263">
+        <v>-7.9037999999999997E-2</v>
+      </c>
+      <c r="C263">
+        <v>2.7007E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>282</v>
+      </c>
+      <c r="B264">
+        <v>-6.7937999999999998E-2</v>
+      </c>
+      <c r="C264">
+        <v>-5.2825999999999998E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>283</v>
+      </c>
+      <c r="B265">
+        <v>7.5453000000000006E-2</v>
+      </c>
+      <c r="C265">
+        <v>-3.3273999999999998E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>284</v>
+      </c>
+      <c r="B266">
+        <v>7.8344999999999998E-2</v>
+      </c>
+      <c r="C266">
+        <v>3.2196000000000002E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>285</v>
+      </c>
+      <c r="B267">
+        <v>-1.7188999999999999E-2</v>
+      </c>
+      <c r="C267">
+        <v>-0.12640000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>286</v>
+      </c>
+      <c r="B268">
+        <v>7.0762999999999998E-3</v>
+      </c>
+      <c r="C268">
+        <v>1.4605E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>287</v>
+      </c>
+      <c r="B269">
+        <v>7.5153999999999999E-2</v>
+      </c>
+      <c r="C269">
+        <v>-5.4524999999999997E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>288</v>
+      </c>
+      <c r="B270">
+        <v>7.0363999999999996E-2</v>
+      </c>
+      <c r="C270">
+        <v>-5.364E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>289</v>
+      </c>
+      <c r="B271">
+        <v>-1.4056000000000001E-2</v>
+      </c>
+      <c r="C271">
+        <v>-0.13658000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>290</v>
+      </c>
+      <c r="B272">
+        <v>8.1617999999999996E-2</v>
+      </c>
+      <c r="C272">
+        <v>-1.2619E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>291</v>
+      </c>
+      <c r="B273">
+        <v>-7.9493999999999995E-2</v>
+      </c>
+      <c r="C273">
+        <v>-1.7111999999999999E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>292</v>
+      </c>
+      <c r="B274">
+        <v>-4.8626000000000003E-2</v>
+      </c>
+      <c r="C274">
+        <v>6.1667E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>293</v>
+      </c>
+      <c r="B275">
+        <v>-3.4571999999999999E-2</v>
+      </c>
+      <c r="C275">
+        <v>3.0112E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>294</v>
+      </c>
+      <c r="B276">
+        <v>-3.3362000000000003E-2</v>
+      </c>
+      <c r="C276">
+        <v>-9.8054000000000002E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>295</v>
+      </c>
+      <c r="B277">
+        <v>-6.9642000000000003E-3</v>
+      </c>
+      <c r="C277">
+        <v>0.11527</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>296</v>
+      </c>
+      <c r="B278">
+        <v>5.5946000000000003E-2</v>
+      </c>
+      <c r="C278">
+        <v>-5.8680000000000003E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>297</v>
+      </c>
+      <c r="B279">
+        <v>1.7201999999999999E-2</v>
+      </c>
+      <c r="C279">
+        <v>-5.4627000000000002E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>298</v>
+      </c>
+      <c r="B280">
+        <v>7.1962999999999999E-2</v>
+      </c>
+      <c r="C280">
+        <v>6.2995999999999998E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>299</v>
+      </c>
+      <c r="B281">
+        <v>8.2750000000000004E-2</v>
+      </c>
+      <c r="C281">
+        <v>-3.3574E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
+        <v>300</v>
+      </c>
+      <c r="B282">
+        <v>-4.5670000000000002E-2</v>
+      </c>
+      <c r="C282">
+        <v>-2.1721000000000001E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>301</v>
+      </c>
+      <c r="B283">
+        <v>-5.8202999999999998E-2</v>
+      </c>
+      <c r="C283">
+        <v>-4.6954999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0E08B2-21C1-46B6-861A-BC4C3150E057}">
   <dimension ref="A1:C283"/>
   <sheetViews>
